--- a/TaoBao/五芳斋.xlsx
+++ b/TaoBao/五芳斋.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,16 @@
           <t>商品详情地址</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>商品月销量</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -475,6 +485,16 @@
           <t>https://detail.tmall.com/item.htm?id=574115768605&amp;amp;ns=1&amp;amp;abbucket=20</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15万+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>没有配送到南京时间</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -502,6 +522,16 @@
           <t>https://detail.tmall.com/item.htm?id=532706024874&amp;amp;ns=1&amp;amp;abbucket=20</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>没有配送到南京时间</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1597,6 +1627,16 @@
           <t>https://detail.tmall.com/item.htm?id=521300047224&amp;amp;ns=1&amp;amp;abbucket=20</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1622,6 +1662,16 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>https://detail.tmall.com/item.htm?id=583444242463&amp;amp;ns=1&amp;amp;abbucket=20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>没有显示月销</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
         </is>
       </c>
     </row>
